--- a/biology/Botanique/Fruit_exotique/Fruit_exotique.xlsx
+++ b/biology/Botanique/Fruit_exotique/Fruit_exotique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un fruit exotique est un fruit qui a été transporté hors de son pays d'origine[1]. Ce terme ne recouvre pas de réalité biologique[2] et désigne communément, par ethnocentrisme, les fruits tropicaux[3],[4].
-Ce terme se retrouve dans le titre de nombreux ouvrages consacrés à des desserts ou à des cocktails à base de fruits[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un fruit exotique est un fruit qui a été transporté hors de son pays d'origine. Ce terme ne recouvre pas de réalité biologique et désigne communément, par ethnocentrisme, les fruits tropicaux,.
+Ce terme se retrouve dans le titre de nombreux ouvrages consacrés à des desserts ou à des cocktails à base de fruits.
 Certaines entreprises sont spécialisées dans cette activité sous cette appellation de « fruits exotiques ». Elles participent à l'activité plus large d'import-export de fruits et légumes comme l’acerola.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Liste des fruits exotiques recensés[6]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ananas (Ananas comosus)
 Avocat (Persea americana)
@@ -565,7 +579,9 @@
           <t>Article connexion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Exotisme</t>
         </is>
